--- a/run1/P03_MF_2/T02_optuna/S02_combine_study.xlsx
+++ b/run1/P03_MF_2/T02_optuna/S02_combine_study.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 8, 'min_samples_split': 30, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.15030559396656473, 'max_features': 0.2, 'max_leaf_nodes': 200, 'min_impurity_decrease': 2.36582496175616e-06, 'ccp_alpha': 2.5900395778562632e-05}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.01716621404379384</v>
+        <v>-0.1469277756084802</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9662952227589745</v>
+        <v>0.8380768203099905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0486219554140563</v>
+        <v>0.04616520622958451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.621211889512582</v>
+        <v>1.827033191559127</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4295736285927041</v>
+        <v>0.6941272673335139</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01716621404379384</v>
+        <v>0.1469277756084802</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006514660885606923</v>
+        <v>0.03647211274924546</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 8, 'min_samples_split': 30, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.15030559396656473, 'max_features': 0.2, 'max_leaf_nodes': 200, 'min_impurity_decrease': 2.36582496175616e-06, 'ccp_alpha': 2.5900395778562632e-05, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 17, 'min_samples_leaf': 50, 'min_weight_fraction_leaf': 0.18272268568994082, 'max_features': None, 'max_leaf_nodes': 500, 'min_impurity_decrease': 3.3249265176018733e-06, 'ccp_alpha': 2.131645714836774e-06}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.0122650053402269</v>
+        <v>-0.1153665457705268</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9686773036021086</v>
+        <v>0.8715876148378472</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1081740731794862</v>
+        <v>0.1075087582301587</v>
       </c>
       <c r="L3" t="n">
-        <v>1.805418971968565</v>
+        <v>1.926611141644142</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3329428282991432</v>
+        <v>0.3527231396013991</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0122650053402269</v>
+        <v>0.1153665457705268</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0717100938516347</v>
+        <v>0.06100348970919635</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 17, 'min_samples_leaf': 50, 'min_weight_fraction_leaf': 0.18272268568994082, 'max_features': None, 'max_leaf_nodes': 500, 'min_impurity_decrease': 3.3249265176018733e-06, 'ccp_alpha': 2.131645714836774e-06, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': None, 'min_samples_split': 17, 'min_samples_leaf': 25, 'min_weight_fraction_leaf': 0.15919526204718304, 'max_features': 1.0, 'max_leaf_nodes': 50, 'min_impurity_decrease': 0.004651606931243899, 'ccp_alpha': 3.359054248098417e-07}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.02713090545620333</v>
+        <v>-0.1054425150932854</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J4" t="n">
-        <v>1.004885851781881</v>
+        <v>0.8799792817856392</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1158955097287895</v>
+        <v>0.1272936303702074</v>
       </c>
       <c r="L4" t="n">
-        <v>1.74406475076052</v>
+        <v>1.696829782180861</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0904335662263918</v>
+        <v>0.1809302024003059</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02713090545620333</v>
+        <v>0.1054425150932854</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04485270601010615</v>
+        <v>0.02910328159050121</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': None, 'min_samples_split': 17, 'min_samples_leaf': 25, 'min_weight_fraction_leaf': 0.15919526204718304, 'max_features': 1.0, 'max_leaf_nodes': 50, 'min_impurity_decrease': 0.004651606931243899, 'ccp_alpha': 3.359054248098417e-07, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 50, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.38432144051128414, 'max_features': 1.0, 'max_leaf_nodes': 200, 'min_impurity_decrease': 0.0003840074662996003, 'ccp_alpha': 0.006452858587142936}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.02231706825783493</v>
+        <v>-0.1376172505684236</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9625339356754172</v>
+        <v>0.8489659989057005</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07420436751987666</v>
+        <v>0.04003636262930175</v>
       </c>
       <c r="L5" t="n">
-        <v>1.743513308763892</v>
+        <v>2.006715664042659</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1695114087352132</v>
+        <v>0.3927134756106679</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02231706825783493</v>
+        <v>0.1376172505684236</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03726357765024674</v>
+        <v>0.02174024479961693</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 50, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.38432144051128414, 'max_features': 1.0, 'max_leaf_nodes': 200, 'min_impurity_decrease': 0.0003840074662996003, 'ccp_alpha': 0.006452858587142936, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'best', 'max_depth': 3, 'min_samples_split': 34, 'min_samples_leaf': 31, 'min_weight_fraction_leaf': 0.12175500580059709, 'max_features': 0.5, 'max_leaf_nodes': 500, 'min_impurity_decrease': 0.00027463263518476516, 'ccp_alpha': 0.00033674713581879293}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.009735041249970145</v>
+        <v>-0.1454485670488088</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9684980412064375</v>
+        <v>0.8241463681597312</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07448750895215731</v>
+        <v>0.0422749567569683</v>
       </c>
       <c r="L6" t="n">
-        <v>19.0754602607401</v>
+        <v>17.98777711319429</v>
       </c>
       <c r="M6" t="n">
-        <v>17.72395962759495</v>
+        <v>24.32639395928068</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009735041249970145</v>
+        <v>0.1454485670488088</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04699648400511486</v>
+        <v>0.02257042983072329</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 12, 'min_samples_split': 10, 'min_samples_leaf': 16, 'min_weight_fraction_leaf': 0.2623782158161189, 'max_features': 'log2', 'max_leaf_nodes': None, 'min_impurity_decrease': 7.122305833333861e-07, 'ccp_alpha': 2.1147447960615705e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'best', 'max_depth': 3, 'min_samples_split': 34, 'min_samples_leaf': 31, 'min_weight_fraction_leaf': 0.12175500580059709, 'max_features': 0.5, 'max_leaf_nodes': 500, 'min_impurity_decrease': 0.00027463263518476516, 'ccp_alpha': 0.00033674713581879293, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.07233779101064103, 'l1_ratio': 0.8304916325089118, 'fit_intercept': False, 'positive': False, 'max_iter': 6120, 'tol': 0.0006330410746237529, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.05052141573406308</v>
+        <v>-0.1892379905855368</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>1.032261549141478</v>
+        <v>0.796402821752627</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06985573994536681</v>
+        <v>0.03322699066613373</v>
       </c>
       <c r="L7" t="n">
-        <v>1.58592326734157</v>
+        <v>1.591884851182064</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3907977940456193</v>
+        <v>0.3776387212272445</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05052141573406308</v>
+        <v>0.1892379905855368</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0501023963573206</v>
+        <v>0.02244716793426597</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.07233779101064103, 'l1_ratio': 0.8304916325089118, 'fit_intercept': False, 'positive': False, 'max_iter': 6120, 'tol': 0.0006330410746237529, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.07661391545028159</v>
+        <v>-0.1596952353055456</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J8" t="n">
-        <v>1.058368406507368</v>
+        <v>0.8271820630066565</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1177478038296293</v>
+        <v>0.09926447352188333</v>
       </c>
       <c r="L8" t="n">
-        <v>1.908093668535275</v>
+        <v>1.761524819524709</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2710085386819244</v>
+        <v>0.267864919922519</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07661391545028159</v>
+        <v>0.1596952353055456</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04571729733386503</v>
+        <v>0.03807296992414078</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.0885690610531529, 'l1_ratio': 0.8990762863505898, 'fit_intercept': False, 'positive': False, 'max_iter': 9907, 'tol': 0.0011787838837752107, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.07111318319089815</v>
+        <v>-0.1370357368033954</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J9" t="n">
-        <v>1.036521290460356</v>
+        <v>0.8409532554381035</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07993473489746887</v>
+        <v>0.1002417223896961</v>
       </c>
       <c r="L9" t="n">
-        <v>1.912366674960198</v>
+        <v>1.437506782566711</v>
       </c>
       <c r="M9" t="n">
-        <v>0.347258011508212</v>
+        <v>0.124851155920288</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.07111318319089815</v>
+        <v>0.1370357368033954</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07183015944517465</v>
+        <v>0.01826717249703931</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.0885690610531529, 'l1_ratio': 0.8990762863505898, 'fit_intercept': False, 'positive': False, 'max_iter': 9907, 'tol': 0.0011787838837752107, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.06889337054498809, 'l1_ratio': 0.9850301820573106, 'fit_intercept': False, 'positive': False, 'max_iter': 2044, 'tol': 3.703306614343919e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.03453047999381111</v>
+        <v>-0.1867651366993657</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J10" t="n">
-        <v>1.013405447726864</v>
+        <v>0.8001478363655578</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04136732027864403</v>
+        <v>0.02202331053572483</v>
       </c>
       <c r="L10" t="n">
-        <v>2.594135283763764</v>
+        <v>1.718647301303156</v>
       </c>
       <c r="M10" t="n">
-        <v>1.165559347141539</v>
+        <v>0.2878582167802882</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03453047999381111</v>
+        <v>0.1867651366993657</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08966058271760553</v>
+        <v>0.03832907144651831</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.06889337054498809, 'l1_ratio': 0.9850301820573106, 'fit_intercept': False, 'positive': False, 'max_iter': 2044, 'tol': 3.703306614343919e-05, 'selection': 'cyclic', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.15729272385950474, 'l1_ratio': 0.13134432980738248, 'fit_intercept': False, 'positive': False, 'max_iter': 1650, 'tol': 1.3827646893079771e-05, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.0259918956880186</v>
+        <v>-0.2150841842378982</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9596001856437509</v>
+        <v>0.7712147846211869</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05749287611273055</v>
+        <v>0.03187447968965072</v>
       </c>
       <c r="L11" t="n">
-        <v>12.96430881843881</v>
+        <v>9.480634694167684</v>
       </c>
       <c r="M11" t="n">
-        <v>11.43265163868603</v>
+        <v>10.83531559824858</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0259918956880186</v>
+        <v>0.2150841842378982</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05696429745235165</v>
+        <v>0.01204726985597264</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.15729272385950474, 'l1_ratio': 0.13134432980738248, 'fit_intercept': False, 'positive': False, 'max_iter': 1650, 'tol': 1.3827646893079771e-05, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1142,36 +1142,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 453, 'learning_rate': 0.006652727426869226, 'max_depth': 7, 'min_samples_split': 86, 'min_samples_leaf': 19, 'subsample': 0.7919051479801282, 'max_features': 0.8, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3318701616685247</v>
+        <v>-0.2126517178398172</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J12" t="n">
-        <v>1.303390453667595</v>
+        <v>0.7739801461511646</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08732049787392043</v>
+        <v>0.05679755273116933</v>
       </c>
       <c r="L12" t="n">
-        <v>2.974506593727</v>
+        <v>1.599533918557282</v>
       </c>
       <c r="M12" t="n">
-        <v>1.229477144672458</v>
+        <v>0.4711406910158217</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.3318701616685247</v>
+        <v>0.2126517178398172</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0852172088446117</v>
+        <v>0.03609324164841918</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 453, 'learning_rate': 0.006652727426869226, 'max_depth': 7, 'min_samples_split': 86, 'min_samples_leaf': 19, 'subsample': 0.7919051479801282, 'max_features': 0.8, 'loss': 'huber', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1202,36 +1202,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 78, 'learning_rate': 0.023516691309709226, 'max_depth': 5, 'min_samples_split': 61, 'min_samples_leaf': 41, 'subsample': 0.8210739243160304, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5002038348227772</v>
+        <v>-0.1722736156348489</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J13" t="n">
-        <v>1.462395605797354</v>
+        <v>0.8167489382364064</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1358708071711174</v>
+        <v>0.1054281124936928</v>
       </c>
       <c r="L13" t="n">
-        <v>3.686678650718761</v>
+        <v>1.650827989952265</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8516084020676739</v>
+        <v>0.1698041199315341</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.5002038348227772</v>
+        <v>0.1722736156348489</v>
       </c>
       <c r="O13" t="n">
-        <v>0.129820265290561</v>
+        <v>0.05788558492633653</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 78, 'learning_rate': 0.023516691309709226, 'max_depth': 5, 'min_samples_split': 61, 'min_samples_leaf': 41, 'subsample': 0.8210739243160304, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 95, 'learning_rate': 0.057961400607064985, 'max_depth': 8, 'min_samples_split': 66, 'min_samples_leaf': 39, 'subsample': 0.9398485342130921, 'max_features': 0.2, 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3760029017820897</v>
+        <v>-0.1765841902873141</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29862856799121</v>
+        <v>0.7979926486766132</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05021078622712963</v>
+        <v>0.07372311971599629</v>
       </c>
       <c r="L14" t="n">
-        <v>2.953834292483371</v>
+        <v>1.785296098670304</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3472949134914018</v>
+        <v>0.3608935924074242</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.3760029017820897</v>
+        <v>0.1765841902873141</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2110771864894472</v>
+        <v>0.03521385568926583</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 95, 'learning_rate': 0.057961400607064985, 'max_depth': 8, 'min_samples_split': 66, 'min_samples_leaf': 39, 'subsample': 0.9398485342130921, 'max_features': 0.2, 'loss': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1322,36 +1322,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 206, 'learning_rate': 0.012469675697841505, 'max_depth': 5, 'min_samples_split': 68, 'min_samples_leaf': 21, 'subsample': 0.8343263698540347, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.3450297307142585</v>
+        <v>-0.2083166648682676</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J15" t="n">
-        <v>1.310913818202737</v>
+        <v>0.7787807276990625</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09111644303274849</v>
+        <v>0.03723298293091359</v>
       </c>
       <c r="L15" t="n">
-        <v>4.555804080000296</v>
+        <v>2.272331910021189</v>
       </c>
       <c r="M15" t="n">
-        <v>2.953740165877698</v>
+        <v>0.7960957212518927</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.3450297307142585</v>
+        <v>0.2083166648682676</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09200293283980698</v>
+        <v>0.04129228333743786</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 206, 'learning_rate': 0.012469675697841505, 'max_depth': 5, 'min_samples_split': 68, 'min_samples_leaf': 21, 'subsample': 0.8343263698540347, 'max_features': 0.8, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1382,36 +1382,36 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 356, 'learning_rate': 0.006333102597510935, 'max_depth': 5, 'min_samples_split': 56, 'min_samples_leaf': 18, 'subsample': 0.7681702720575851, 'max_features': 0.8, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.2435367257299257</v>
+        <v>-0.2211371425008697</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J16" t="n">
-        <v>1.20586964423332</v>
+        <v>0.7605228026206484</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04397665115477842</v>
+        <v>0.02494550016975686</v>
       </c>
       <c r="L16" t="n">
-        <v>40.36512465103431</v>
+        <v>19.71372187842399</v>
       </c>
       <c r="M16" t="n">
-        <v>54.16921540088806</v>
+        <v>26.29368273012537</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.2435367257299257</v>
+        <v>0.2211371425008697</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03037262371830229</v>
+        <v>0.01508150953697415</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'learning_rate': 0.6351221010640696, 'max_depth': 8, 'min_samples_split': 61, 'min_samples_leaf': 8, 'subsample': 0.5779972601681014, 'max_features': 1.0, 'loss': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 356, 'learning_rate': 0.006333102597510935, 'max_depth': 5, 'min_samples_split': 56, 'min_samples_leaf': 18, 'subsample': 0.7681702720575851, 'max_features': 0.8, 'loss': 'huber', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1442,36 +1442,36 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 50, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 32, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-0.06746089548549221</v>
+        <v>-0.09091538461379194</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9129822978370185</v>
+        <v>0.8931692749180784</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04617931519563945</v>
+        <v>0.05734827218114271</v>
       </c>
       <c r="L17" t="n">
-        <v>1.437207580672328</v>
+        <v>1.328052696778024</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2947299607560643</v>
+        <v>0.2756918622951562</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06746089548549221</v>
+        <v>0.09091538461379194</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02762729438594358</v>
+        <v>0.02707087045612305</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 50, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 32, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1502,36 +1502,36 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 47, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 51, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-0.01848372760095808</v>
+        <v>-0.06154159314634274</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J18" t="n">
-        <v>0.963756887094932</v>
+        <v>0.9236758723589049</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1136440460620868</v>
+        <v>0.1019456809352566</v>
       </c>
       <c r="L18" t="n">
-        <v>1.801189087908959</v>
+        <v>1.583657014104643</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1929625337824185</v>
+        <v>0.2090418737225837</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01848372760095808</v>
+        <v>0.06154159314634274</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07387699234533002</v>
+        <v>0.04656989366931831</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 47, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 51, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1562,36 +1562,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 34, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 32, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-0.02006680607749923</v>
+        <v>-0.08758738739533591</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9562243699110894</v>
+        <v>0.8958734539535598</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09420248942557215</v>
+        <v>0.1195156607328977</v>
       </c>
       <c r="L19" t="n">
-        <v>1.693705599222479</v>
+        <v>1.469629590241422</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3477889221375777</v>
+        <v>0.1348116067545468</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02006680607749923</v>
+        <v>0.08758738739533591</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06500446091889117</v>
+        <v>0.03358380028775523</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 34, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 32, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1622,36 +1622,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 38, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 44, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-0.04822276955275782</v>
+        <v>-0.1098673648424976</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9389626664180269</v>
+        <v>0.8768461002277335</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05305279975070069</v>
+        <v>0.04094344851465339</v>
       </c>
       <c r="L20" t="n">
-        <v>1.8434915389401</v>
+        <v>1.682885598948942</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4254328671915234</v>
+        <v>0.3406494424825887</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04822276955275782</v>
+        <v>0.1098673648424976</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02366851406271269</v>
+        <v>0.03089416264137949</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 38, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 44, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 44, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 59, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-0.06919813621608908</v>
+        <v>-0.1149476456251722</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9158003632669488</v>
+        <v>0.8733139851707303</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04711441746245566</v>
+        <v>0.04145500098938271</v>
       </c>
       <c r="L21" t="n">
-        <v>13.51357093733702</v>
+        <v>11.5607751669762</v>
       </c>
       <c r="M21" t="n">
-        <v>14.24624523730698</v>
+        <v>13.09314643839833</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06919813621608908</v>
+        <v>0.1149476456251722</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03899471358715859</v>
+        <v>0.02872230485312739</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 44, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 59, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1742,36 +1742,36 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 93, 'max_depth': 3, 'min_samples_split': 13, 'min_samples_leaf': 7, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-0.1789453360247439</v>
+        <v>-0.2066015268686176</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8080520728904239</v>
+        <v>0.7790613043567242</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07021725754702668</v>
+        <v>0.05619126076275575</v>
       </c>
       <c r="L22" t="n">
-        <v>1.608308683722177</v>
+        <v>1.74578593570783</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4534060041301443</v>
+        <v>0.6552891598168925</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1789453360247439</v>
+        <v>0.2066015268686176</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03487046073448199</v>
+        <v>0.0251188186141127</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 93, 'max_depth': 3, 'min_samples_split': 13, 'min_samples_leaf': 7, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1802,36 +1802,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 161, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 15, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-0.1406021306482535</v>
+        <v>-0.160395631336033</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8472862900172289</v>
+        <v>0.8273181857328336</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1204287326916474</v>
+        <v>0.09983942474291685</v>
       </c>
       <c r="L23" t="n">
-        <v>1.929772864433319</v>
+        <v>1.611910980163733</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2481010832848528</v>
+        <v>0.1506599611598196</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1406021306482535</v>
+        <v>0.160395631336033</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0681609492239441</v>
+        <v>0.05026435222663675</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 161, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 15, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1862,36 +1862,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 410, 'max_depth': 4, 'min_samples_split': 15, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-0.1370791600725449</v>
+        <v>-0.1809009238097492</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8404438080392326</v>
+        <v>0.7987554893943818</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09988765229704499</v>
+        <v>0.08869068194818816</v>
       </c>
       <c r="L24" t="n">
-        <v>1.739596502439713</v>
+        <v>1.414241506491126</v>
       </c>
       <c r="M24" t="n">
-        <v>0.454196466409975</v>
+        <v>0.1387858556132932</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1370791600725449</v>
+        <v>0.1809009238097492</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01775761316726359</v>
+        <v>0.02307494892723578</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 410, 'max_depth': 4, 'min_samples_split': 15, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'absolute_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1922,36 +1922,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 401, 'max_depth': 3, 'min_samples_split': 32, 'min_samples_leaf': 26, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-0.1723858511659712</v>
+        <v>-0.1881784909001078</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8151304656881992</v>
+        <v>0.8013388468976363</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04033212771516316</v>
+        <v>0.05060256279978332</v>
       </c>
       <c r="L25" t="n">
-        <v>1.911147761440602</v>
+        <v>1.858150059657878</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3874694603337396</v>
+        <v>0.4310530342995572</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1723858511659712</v>
+        <v>0.1881784909001078</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03314241460743694</v>
+        <v>0.02493187140182721</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 401, 'max_depth': 3, 'min_samples_split': 32, 'min_samples_leaf': 26, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1982,36 +1982,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 323, 'max_depth': 8, 'min_samples_split': 38, 'min_samples_leaf': 5, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-0.1668135213814755</v>
+        <v>-0.2100199693683895</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8139298300646135</v>
+        <v>0.7716287728678562</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0547883421501325</v>
+        <v>0.03622511361868808</v>
       </c>
       <c r="L26" t="n">
-        <v>15.06133221362102</v>
+        <v>17.75952880997767</v>
       </c>
       <c r="M26" t="n">
-        <v>18.34086740639036</v>
+        <v>22.0245748544673</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1668135213814755</v>
+        <v>0.2100199693683895</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02799960864920138</v>
+        <v>0.02226973875077111</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 323, 'max_depth': 8, 'min_samples_split': 38, 'min_samples_leaf': 5, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2042,36 +2042,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.00977864362649448, 'epsilon': 0.8240337513827882, 'gamma_choice': 'auto', 'coef0': 0.02084591137820352, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.01421325029051512</v>
+        <v>-0.1349841966169938</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9961452547055851</v>
+        <v>0.8487218249377056</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0701252674488974</v>
+        <v>0.05680631481162428</v>
       </c>
       <c r="L27" t="n">
-        <v>1.013823718736772</v>
+        <v>1.590937027346267</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01931414851039005</v>
+        <v>0.422154807073186</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.01421325029051512</v>
+        <v>0.1349841966169938</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03629833232990962</v>
+        <v>0.05355098708812826</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.00977864362649448, 'gamma': 'auto', 'epsilon': 0.8240337513827882, 'coef0': 0.02084591137820352, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2102,36 +2102,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.0035666707773061575, 'epsilon': 0.0016633250828657468, 'gamma_choice': 'scale', 'coef0': -0.7278225311487889, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.0260077621675907</v>
+        <v>-0.116560737026809</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J28" t="n">
-        <v>1.008824381599025</v>
+        <v>0.8695282536481177</v>
       </c>
       <c r="K28" t="n">
-        <v>0.102388217283633</v>
+        <v>0.1020686241527571</v>
       </c>
       <c r="L28" t="n">
-        <v>1.16909113985165</v>
+        <v>1.763708168807927</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0885834698939823</v>
+        <v>0.2249755664024964</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0260077621675907</v>
+        <v>0.116560737026809</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03697078044342257</v>
+        <v>0.05301469911433582</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.0035666707773061575, 'gamma': 'scale', 'epsilon': 0.0016633250828657468, 'coef0': -0.7278225311487889, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2162,36 +2162,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.003586116282226575, 'epsilon': 0.0024653029406655116, 'gamma_choice': 'auto', 'coef0': 0.7342424508416459, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.02577578539128024</v>
+        <v>-0.108801532497245</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J29" t="n">
-        <v>1.002635069707261</v>
+        <v>0.8697086701319527</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1210341366930619</v>
+        <v>0.09262117504880885</v>
       </c>
       <c r="L29" t="n">
-        <v>1.100231726921489</v>
+        <v>1.572347559783229</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0731305497850633</v>
+        <v>0.2803659862759997</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.02577578539128024</v>
+        <v>0.108801532497245</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02460732420036961</v>
+        <v>0.04110241027003961</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.003586116282226575, 'gamma': 'auto', 'epsilon': 0.0024653029406655116, 'coef0': 0.7342424508416459, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2222,36 +2222,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.008116253526307352, 'epsilon': 0.9426684324731415, 'gamma_choice': 'float', 'gamma': 0.003479014617931785, 'coef0': 0.10237591427686385, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-0.005247647686158402</v>
+        <v>-0.135184217619151</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9870332656872868</v>
+        <v>0.8491167235579674</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07306583540487481</v>
+        <v>0.03384211502512898</v>
       </c>
       <c r="L30" t="n">
-        <v>1.109645637097237</v>
+        <v>2.192966300993671</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1165444652704477</v>
+        <v>0.6112112411265006</v>
       </c>
       <c r="N30" t="n">
-        <v>0.005247647686158402</v>
+        <v>0.135184217619151</v>
       </c>
       <c r="O30" t="n">
-        <v>0.001448306566584828</v>
+        <v>0.06225528166901018</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.008116253526307352, 'gamma': 0.003479014617931785, 'epsilon': 0.9426684324731415, 'coef0': 0.10237591427686385, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2282,36 +2282,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 0.004174129907473797, 'epsilon': 0.04127351027103067, 'gamma_choice': 'float', 'gamma': 0.010374865749532919, 'coef0': -0.002656642861796954, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-0.003399947576639473</v>
+        <v>-0.1801718811246221</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9838678662739306</v>
+        <v>0.8037061600931621</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0413603633909126</v>
+        <v>0.0367312320163303</v>
       </c>
       <c r="L31" t="n">
-        <v>2.555220390987568</v>
+        <v>7.636933377021408</v>
       </c>
       <c r="M31" t="n">
-        <v>1.952415719427888</v>
+        <v>8.340382164818386</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003399947576639473</v>
+        <v>0.1801718811246221</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01755174491779585</v>
+        <v>0.02275694745897244</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 0.004174129907473797, 'gamma': 0.010374865749532919, 'epsilon': 0.04127351027103067, 'coef0': -0.002656642861796954, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2342,36 +2342,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 260, 'max_depth': 8, 'learning_rate': 0.018779350769488022, 'subsample': 0.8358515502492323, 'colsample_bytree': 0.9363350502253901, 'colsample_bylevel': 0.39778093827993033, 'gamma': 3.2074425872921317, 'min_child_weight': 0.0010015814120593227, 'reg_alpha': 0.0013058721485548074, 'reg_lambda': 1.4036384501630101e-06, 'booster': 'dart', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-0.06757047026321329</v>
+        <v>-0.2155383562110788</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9152937798547212</v>
+        <v>0.7720331798005345</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04186389289329995</v>
+        <v>0.04640246569923222</v>
       </c>
       <c r="L32" t="n">
-        <v>2.055756208096397</v>
+        <v>1.567101923179078</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7640026216456215</v>
+        <v>0.5094499688024725</v>
       </c>
       <c r="N32" t="n">
-        <v>0.06757047026321329</v>
+        <v>0.2155383562110788</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05334797306442082</v>
+        <v>0.02650336526684183</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 260, 'max_depth': 8, 'learning_rate': 0.018779350769488022, 'subsample': 0.8358515502492323, 'colsample_bytree': 0.9363350502253901, 'colsample_bylevel': 0.39778093827993033, 'gamma': 3.2074425872921317, 'min_child_weight': 0.0010015814120593227, 'reg_alpha': 0.0013058721485548074, 'reg_lambda': 1.4036384501630101e-06, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2402,36 +2402,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 293, 'max_depth': 9, 'learning_rate': 0.028505724254064394, 'subsample': 0.6488799690568505, 'colsample_bytree': 0.7697466539110802, 'colsample_bylevel': 0.7349665971849142, 'gamma': 7.006224446697495, 'min_child_weight': 0.007356897359660869, 'reg_alpha': 1.257082818127483e-08, 'reg_lambda': 1.9084593164624517e-05, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.01673471013221276</v>
+        <v>-0.1658055662115204</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J33" t="n">
-        <v>1.000016077869876</v>
+        <v>0.8234009673944016</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1130198024695618</v>
+        <v>0.1026056663524304</v>
       </c>
       <c r="L33" t="n">
-        <v>2.531009435629563</v>
+        <v>1.595427643602612</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4264312781336426</v>
+        <v>0.1949892894580631</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01673471013221276</v>
+        <v>0.1658055662115204</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07165976596150006</v>
+        <v>0.05493013884148711</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 293, 'max_depth': 9, 'learning_rate': 0.028505724254064394, 'subsample': 0.6488799690568505, 'colsample_bytree': 0.7697466539110802, 'colsample_bylevel': 0.7349665971849142, 'gamma': 7.006224446697495, 'min_child_weight': 0.007356897359660869, 'reg_alpha': 1.257082818127483e-08, 'reg_lambda': 1.9084593164624517e-05, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2462,36 +2462,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 120, 'max_depth': 11, 'learning_rate': 0.05902513980061055, 'subsample': 0.6646705967200138, 'colsample_bytree': 0.9179104903960369, 'colsample_bylevel': 0.6981090765856756, 'gamma': 5.798945742396967, 'min_child_weight': 9.139999313411932, 'reg_alpha': 1.2182639378281543e-06, 'reg_lambda': 0.000977591147158464, 'booster': 'dart', 'tree_method': 'hist'}</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-0.04942996365036911</v>
+        <v>-0.1848514744939766</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9126270416210778</v>
+        <v>0.7916276656643642</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0654584728066596</v>
+        <v>0.08549637930581698</v>
       </c>
       <c r="L34" t="n">
-        <v>2.330175104847068</v>
+        <v>1.615497584581728</v>
       </c>
       <c r="M34" t="n">
-        <v>0.369205949658239</v>
+        <v>0.1481911644560603</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04942996365036911</v>
+        <v>0.1848514744939766</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07023368751810458</v>
+        <v>0.02397862493050833</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 120, 'max_depth': 11, 'learning_rate': 0.05902513980061055, 'subsample': 0.6646705967200138, 'colsample_bytree': 0.9179104903960369, 'colsample_bylevel': 0.6981090765856756, 'gamma': 5.798945742396967, 'min_child_weight': 9.139999313411932, 'reg_alpha': 1.2182639378281543e-06, 'reg_lambda': 0.000977591147158464, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2522,36 +2522,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 157, 'max_depth': 11, 'learning_rate': 0.06325855498015404, 'subsample': 0.6338746579156532, 'colsample_bytree': 0.7846674761729076, 'colsample_bylevel': 0.6614451565572682, 'gamma': 6.074921126586681, 'min_child_weight': 8.646867316695335, 'reg_alpha': 8.237533047017189e-07, 'reg_lambda': 1.0224817393613152e-08, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-0.07302589579116567</v>
+        <v>-0.2057658167706755</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9038984646467413</v>
+        <v>0.7856820770316395</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05382503330593347</v>
+        <v>0.04106363256681417</v>
       </c>
       <c r="L35" t="n">
-        <v>3.046883148602332</v>
+        <v>1.943085700239443</v>
       </c>
       <c r="M35" t="n">
-        <v>1.231527120415123</v>
+        <v>0.550478388027955</v>
       </c>
       <c r="N35" t="n">
-        <v>0.07302589579116567</v>
+        <v>0.2057658167706755</v>
       </c>
       <c r="O35" t="n">
-        <v>0.06693927544954804</v>
+        <v>0.02238257953344515</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 157, 'max_depth': 11, 'learning_rate': 0.06325855498015404, 'subsample': 0.6338746579156532, 'colsample_bytree': 0.7846674761729076, 'colsample_bylevel': 0.6614451565572682, 'gamma': 6.074921126586681, 'min_child_weight': 8.646867316695335, 'reg_alpha': 8.237533047017189e-07, 'reg_lambda': 1.0224817393613152e-08, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-29_17-14</t>
+          <t>2026-01-30_04-30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2582,36 +2582,36 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 183, 'max_depth': 9, 'learning_rate': 0.08232134768644433, 'subsample': 0.7610141002346538, 'colsample_bytree': 0.8341884687223948, 'colsample_bylevel': 0.8379719701954637, 'gamma': 5.318953943162181, 'min_child_weight': 0.33204355440620553, 'reg_alpha': 5.255939546000685e-06, 'reg_lambda': 4.135883294389039e-06, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-0.08382059364097992</v>
+        <v>-0.2173524706644529</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J36" t="n">
-        <v>0.89102503114</v>
+        <v>0.7646810828443744</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02925759283454572</v>
+        <v>0.03228475325280326</v>
       </c>
       <c r="L36" t="n">
-        <v>24.77540696141336</v>
+        <v>13.89100607962451</v>
       </c>
       <c r="M36" t="n">
-        <v>36.73552017236807</v>
+        <v>17.58435852451708</v>
       </c>
       <c r="N36" t="n">
-        <v>0.08382059364097992</v>
+        <v>0.2173524706644529</v>
       </c>
       <c r="O36" t="n">
-        <v>0.05099421454886634</v>
+        <v>0.01938880001916649</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 183, 'max_depth': 9, 'learning_rate': 0.08232134768644433, 'subsample': 0.7610141002346538, 'colsample_bytree': 0.8341884687223948, 'colsample_bylevel': 0.8379719701954637, 'gamma': 5.318953943162181, 'min_child_weight': 0.33204355440620553, 'reg_alpha': 5.255939546000685e-06, 'reg_lambda': 4.135883294389039e-06, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
